--- a/QUANGHANH2/excel/TCLD/TuyenDung/UploadContainer/temp.xlsx
+++ b/QUANGHANH2/excel/TCLD/TuyenDung/UploadContainer/temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>DANH SÁCH TIẾP NHẬN VÀ BỐ TRÍ CÔNG TÁC ĐỐI VỚI CÔNG NHÂN</t>
     <phoneticPr fontId="1"/>
@@ -95,36 +95,15 @@
     <t>4.867.000</t>
   </si>
   <si>
-    <t>Hoàng Văn Hà</t>
-  </si>
-  <si>
-    <t>TCN</t>
-  </si>
-  <si>
-    <t>Trại Ba,Hồng Kỳ,Yên Thế,Bắc Giang</t>
-  </si>
-  <si>
-    <t>5.305.000</t>
-  </si>
-  <si>
     <t>3/6</t>
   </si>
   <si>
-    <t>4/6</t>
-  </si>
-  <si>
     <t>TKV 01.NI.VII</t>
   </si>
   <si>
     <t>khai thác hầm lò</t>
   </si>
   <si>
-    <t>DL3</t>
-  </si>
-  <si>
-    <t>KT5</t>
-  </si>
-  <si>
     <t>Ngày</t>
   </si>
   <si>
@@ -132,6 +111,9 @@
   </si>
   <si>
     <t>Năm</t>
+  </si>
+  <si>
+    <t>DL1</t>
   </si>
 </sst>
 </file>
@@ -328,6 +310,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -351,12 +339,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
@@ -662,56 +644,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="10">
-        <v>123</v>
-      </c>
-      <c r="I2" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="E3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="4"/>
+      <c r="E3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2019</v>
+      </c>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="56.25">
       <c r="A4" s="4" t="s">
@@ -758,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>9328</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -767,7 +755,7 @@
         <v>16198</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -776,61 +764,20 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="37.5">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>9329</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6">
-        <v>16198</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="D7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/QUANGHANH2/excel/TCLD/TuyenDung/UploadContainer/temp.xlsx
+++ b/QUANGHANH2/excel/TCLD/TuyenDung/UploadContainer/temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>DANH SÁCH TIẾP NHẬN VÀ BỐ TRÍ CÔNG TÁC ĐỐI VỚI CÔNG NHÂN</t>
     <phoneticPr fontId="1"/>
@@ -37,42 +37,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ngày sinh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Trình độ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chuyên Nghành</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Công việc bố trí</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thường trú</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thang lương</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bậc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mức lương (đồng/ tháng)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/QĐ-VQHC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -80,30 +44,6 @@
     <t>Họ và tên</t>
   </si>
   <si>
-    <t>Đinh Quốc Triền</t>
-  </si>
-  <si>
-    <t>SCN</t>
-  </si>
-  <si>
-    <t>Kỹ thuật khai thác mỏ hầm lò</t>
-  </si>
-  <si>
-    <t>Đội 9,Tranh xuyên,Đồng Tâm,Ninh Giang,Hải Dương</t>
-  </si>
-  <si>
-    <t>4.867.000</t>
-  </si>
-  <si>
-    <t>3/6</t>
-  </si>
-  <si>
-    <t>TKV 01.NI.VII</t>
-  </si>
-  <si>
-    <t>khai thác hầm lò</t>
-  </si>
-  <si>
     <t>Ngày</t>
   </si>
   <si>
@@ -113,7 +53,31 @@
     <t>Năm</t>
   </si>
   <si>
-    <t>DL1</t>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Trình độ</t>
+  </si>
+  <si>
+    <t>Chuyên Nghành</t>
+  </si>
+  <si>
+    <t>Công việc bố trí</t>
+  </si>
+  <si>
+    <t>Thường trú</t>
+  </si>
+  <si>
+    <t>Thang lương</t>
+  </si>
+  <si>
+    <t>Bậc</t>
+  </si>
+  <si>
+    <t>Mức lương (đồng/ tháng)</t>
   </si>
 </sst>
 </file>
@@ -623,7 +587,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
@@ -671,11 +635,9 @@
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="10">
-        <v>1233</v>
-      </c>
+      <c r="H2" s="10"/>
       <c r="I2" s="19" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
@@ -683,23 +645,17 @@
     </row>
     <row r="3" spans="1:14">
       <c r="E3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="11">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H3" s="11"/>
       <c r="I3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2019</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="56.25">
       <c r="A4" s="4" t="s">
@@ -709,75 +665,40 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="56.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>157</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6">
-        <v>16198</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="5" spans="1:14">
+      <c r="D5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/QUANGHANH2/excel/TCLD/TuyenDung/UploadContainer/temp.xlsx
+++ b/QUANGHANH2/excel/TCLD/TuyenDung/UploadContainer/temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>DANH SÁCH TIẾP NHẬN VÀ BỐ TRÍ CÔNG TÁC ĐỐI VỚI CÔNG NHÂN</t>
     <phoneticPr fontId="1"/>
@@ -37,6 +37,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Ngày sinh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trình độ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chuyên Nghành</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Công việc bố trí</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thường trú</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thang lương</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bậc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mức lương (đồng/ tháng)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>/QĐ-VQHC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -53,31 +89,25 @@
     <t>Năm</t>
   </si>
   <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>Trình độ</t>
-  </si>
-  <si>
-    <t>Chuyên Nghành</t>
-  </si>
-  <si>
-    <t>Công việc bố trí</t>
-  </si>
-  <si>
-    <t>Thường trú</t>
-  </si>
-  <si>
-    <t>Thang lương</t>
-  </si>
-  <si>
-    <t>Bậc</t>
-  </si>
-  <si>
-    <t>Mức lương (đồng/ tháng)</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Bí thư đảng uỷ</t>
+  </si>
+  <si>
+    <t>TKV 09.2</t>
+  </si>
+  <si>
+    <t>DL1</t>
+  </si>
+  <si>
+    <t>Địa chất</t>
   </si>
 </sst>
 </file>
@@ -242,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -303,6 +333,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +620,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
@@ -595,12 +628,12 @@
     <col min="1" max="1" width="8.85546875" style="2"/>
     <col min="2" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="19" style="7" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" style="2" customWidth="1"/>
     <col min="13" max="14" width="8.85546875" style="2"/>
@@ -635,9 +668,11 @@
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="10">
+        <v>1111</v>
+      </c>
       <c r="I2" s="19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
@@ -645,19 +680,25 @@
     </row>
     <row r="3" spans="1:14">
       <c r="E3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
       <c r="G3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="H3" s="11">
+        <v>12</v>
+      </c>
       <c r="I3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="56.25">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="37.5">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -665,40 +706,75 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="K4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="D5" s="6"/>
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>666</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6">
+        <v>13212</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/QUANGHANH2/excel/TCLD/TuyenDung/UploadContainer/temp.xlsx
+++ b/QUANGHANH2/excel/TCLD/TuyenDung/UploadContainer/temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>DANH SÁCH TIẾP NHẬN VÀ BỐ TRÍ CÔNG TÁC ĐỐI VỚI CÔNG NHÂN</t>
     <phoneticPr fontId="1"/>
@@ -104,10 +104,13 @@
     <t>TKV 09.2</t>
   </si>
   <si>
-    <t>DL1</t>
-  </si>
-  <si>
-    <t>Địa chất</t>
+    <t>PXDL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rèn dập </t>
+  </si>
+  <si>
+    <t>1111,gg</t>
   </si>
 </sst>
 </file>
@@ -310,6 +313,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -333,9 +339,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
@@ -641,42 +644,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="10">
         <v>1111</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:14">
       <c r="E3" s="12" t="s">
@@ -766,14 +769,14 @@
       <c r="I5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="2">
-        <v>111</v>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
